--- a/biology/Zoologie/Euploea_leucostictos/Euploea_leucostictos.xlsx
+++ b/biology/Zoologie/Euploea_leucostictos/Euploea_leucostictos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea leucostictos est une espèce d'insectes lépidoptères de la sous-famille des Danainae (famille des Nymphalidae)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea leucostictos est une espèce d'insectes lépidoptères de la sous-famille des Danainae (famille des Nymphalidae).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea  leucostictos est présent depuis les Philippines jusqu'en Nouvelle-Calédonie à Grande-Terre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea  leucostictos est présent depuis les Philippines jusqu'en Nouvelle-Calédonie à Grande-Terre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon marron foncé dont le dessus est orné d'une ligne submarginale de points ovales blancs aux antérieures et aux postérieures. Le revers est marron plus clair avec la même ornementation. Le corps est noir, marqué lui aussi de points blancs.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (27 novembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (27 novembre 2023) :
 Euploea leucostictos affinita Strand, 1914
 Euploea leucostictos aviena Fruhstorfer, 1910
 Euploea leucostictos bellona Howarth, 1962
@@ -640,8 +658,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Ficus, Ficus harlandi, Ficus streblus, Ficus hispida, Ficus retusa, Ficus robusta, Ficus subulata, Ficus streblus, Ficus wass[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Ficus, Ficus harlandi, Ficus streblus, Ficus hispida, Ficus retusa, Ficus robusta, Ficus subulata, Ficus streblus, Ficus wass.
 </t>
         </is>
       </c>
@@ -670,7 +693,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
@@ -701,9 +726,11 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea leucostictos novarumebudum figure sur un timbre du Vanuatu[3]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea leucostictos novarumebudum figure sur un timbre du Vanuatu
 </t>
         </is>
       </c>
@@ -732,12 +759,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Euploea leucostictos (Gmelin, 1790)[2].
-L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio leucostictos Gmelin, 1790[2].
-Synonymes
-Selon GBIF       (27 novembre 2023)[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euploea leucostictos (Gmelin, 1790).
+L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio leucostictos Gmelin, 1790.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_leucostictos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_leucostictos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 novembre 2023) :
 Euploea albocincta van Eecke, 1915
 Euploea assimilata C.Felder &amp; R.Felder, 1865
 Euploea bandaensis Fruhstorfer, 1910
@@ -748,7 +812,7 @@
 Salpinx bouruana Moore, 1883
 Salpinx frigida Butler, 1878
 Salpinx nepotina Fruhstorfer, 1904
-Selon Funet, le 22 juillet 2011[1] :
+Selon Funet, le 22 juillet 2011 :
 Euploea nemertes erima Rothschild, 1915</t>
         </is>
       </c>
